--- a/6.Gerenciamento de Projeto/Planilha_de_Planejamento_e_Controle_do_Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/Planilha_de_Planejamento_e_Controle_do_Projeto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f3bac6445a88293/Atividades IFSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6E0201-F1F3-45CF-9B42-F6E14EE4BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="Restante">"OFFSET([$#REF!.$B$12];0;0;1;COUNT([$#REF!.$B$12:.$L$12]))"</definedName>
     <definedName name="Restante2">"OFFSET(#ref!,0,0,1,COUNT(#ref!)))"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -465,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -527,12 +528,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -626,12 +627,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -666,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -721,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -903,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0">
+    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0">
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0">
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1532,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0">
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1587,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K49" authorId="0" shapeId="0">
+    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1647,12 +1648,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1799,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1959,7 +1960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2076,7 +2077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2119,7 +2120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2164,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2352,7 +2353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2407,7 +2408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2520,7 +2521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2751,7 +2752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -2889,7 +2890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -3002,7 +3003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -3067,7 +3068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -3170,7 +3171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -3215,7 +3216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
       <text>
         <r>
           <rPr>
@@ -3318,7 +3319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
       <text>
         <r>
           <rPr>
@@ -3383,7 +3384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
       <text>
         <r>
           <rPr>
@@ -3752,7 +3753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0">
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
       <text>
         <r>
           <rPr>
@@ -3855,7 +3856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
       <text>
         <r>
           <rPr>
@@ -4053,7 +4054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
       <text>
         <r>
           <rPr>
@@ -4156,7 +4157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0">
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
       <text>
         <r>
           <rPr>
@@ -4259,7 +4260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
       <text>
         <r>
           <rPr>
@@ -4408,7 +4409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0" shapeId="0">
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
       <text>
         <r>
           <rPr>
@@ -4511,7 +4512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -4714,12 +4715,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4990,9 +4991,6 @@
   </si>
   <si>
     <t>Versão</t>
-  </si>
-  <si>
-    <t>Release-9.9.9</t>
   </si>
   <si>
     <t>Planejado</t>
@@ -5510,51 +5508,9 @@
     <t>b.lindman@aluno.ifsp.edu.br</t>
   </si>
   <si>
-    <t>Implementar e Testar o UC Cadastrar conta</t>
-  </si>
-  <si>
-    <t>Implementar e testar o UC Visualizar lista eventos</t>
-  </si>
-  <si>
-    <t>Implementart e Testar o UC Realizar login</t>
-  </si>
-  <si>
-    <t>Implementar e testar o UC Participar de um evento</t>
-  </si>
-  <si>
-    <t>Implementar e testar o UC Manter local</t>
-  </si>
-  <si>
-    <t>Implementar e testar o UC Manter evento</t>
-  </si>
-  <si>
-    <t>Implementar e testar o UC Manter funcionário</t>
-  </si>
-  <si>
     <t>Especificar, Analisar e Projetar  casos de uso</t>
   </si>
   <si>
-    <t>UC Cadastrar conta</t>
-  </si>
-  <si>
-    <t>UC Realizar login</t>
-  </si>
-  <si>
-    <t>UC Participar de um evento</t>
-  </si>
-  <si>
-    <t>UC Manter evento</t>
-  </si>
-  <si>
-    <t>UC Manter funcionário</t>
-  </si>
-  <si>
-    <t>UC Visualizar lista eventos</t>
-  </si>
-  <si>
-    <t>UC Manter local</t>
-  </si>
-  <si>
     <t>elaboração</t>
   </si>
   <si>
@@ -5568,12 +5524,57 @@
   </si>
   <si>
     <t>iniciação</t>
+  </si>
+  <si>
+    <t>Implementar e Testar o UC1 - Cadastrar conta</t>
+  </si>
+  <si>
+    <t>Implementart e Testar o UC2 - Realizar login</t>
+  </si>
+  <si>
+    <t>Implementar e testar o UC3 - Manter funcionário</t>
+  </si>
+  <si>
+    <t>Implementar e testar o UC7 - Visualizar lista eventos</t>
+  </si>
+  <si>
+    <t>Implementar e testar o UC6 - Participar de um evento</t>
+  </si>
+  <si>
+    <t>Implementar e testar o UC4 - Manter local</t>
+  </si>
+  <si>
+    <t>Implementar e testar o UC5 - Manter evento</t>
+  </si>
+  <si>
+    <t>UC1 - Cadastrar conta</t>
+  </si>
+  <si>
+    <t>UC2 - Realizar login</t>
+  </si>
+  <si>
+    <t>UC7 - Visualizar lista eventos</t>
+  </si>
+  <si>
+    <t>UC6 - Participar de um evento</t>
+  </si>
+  <si>
+    <t>UC4 - Manter local</t>
+  </si>
+  <si>
+    <t>UC5 - Manter evento</t>
+  </si>
+  <si>
+    <t>UC3 - Manter funcionário</t>
+  </si>
+  <si>
+    <t>Release-1.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="[$-416]General"/>
     <numFmt numFmtId="165" formatCode="[$-416]0"/>
@@ -5963,7 +5964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6085,6 +6086,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6109,16 +6125,16 @@
     <xf numFmtId="173" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyProtection="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6145,7 +6161,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6172,397 +6188,393 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="24" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="34" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="16" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="28" fillId="16" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="16" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="12" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="38" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="39" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="39" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="39" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="23" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="24" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="26" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="11" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="34" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="16" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="28" fillId="16" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="16" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="12" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="38" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6578,6 +6590,21 @@
     <xf numFmtId="164" fontId="30" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6608,44 +6635,29 @@
     <xf numFmtId="164" fontId="28" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="39" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="39" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="39" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="cf1" xfId="1"/>
-    <cellStyle name="cf2" xfId="2"/>
-    <cellStyle name="cf3" xfId="3"/>
-    <cellStyle name="cf4" xfId="4"/>
-    <cellStyle name="cf5" xfId="5"/>
-    <cellStyle name="cf6" xfId="6"/>
-    <cellStyle name="ConditionalStyle_1" xfId="7"/>
-    <cellStyle name="Excel Built-in Comma" xfId="8"/>
-    <cellStyle name="Excel Built-in Currency" xfId="9"/>
-    <cellStyle name="Excel Built-in Normal" xfId="10"/>
-    <cellStyle name="Excel Built-in Percent" xfId="11"/>
-    <cellStyle name="Heading" xfId="12"/>
-    <cellStyle name="Heading1" xfId="13"/>
+    <cellStyle name="cf1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="cf2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="cf3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="cf4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="cf5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="cf6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="ConditionalStyle_1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Comma" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Currency" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Excel Built-in Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Heading" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Heading1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Hiperlink" xfId="16" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="14"/>
-    <cellStyle name="Result2" xfId="15"/>
+    <cellStyle name="Result" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Result2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -6674,12 +6686,22 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF666699"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF666699"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
     </dxf>
     <dxf>
@@ -6694,17 +6716,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF666699"/>
       </font>
     </dxf>
   </dxfs>
@@ -6725,9 +6737,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>703335</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57793</xdr:rowOff>
+      <xdr:colOff>630763</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103151</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3725997" cy="1047957"/>
     <xdr:pic>
@@ -6755,7 +6767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8380485" y="3715393"/>
+          <a:off x="8305192" y="2688508"/>
           <a:ext cx="3725997" cy="1047957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8505,37 +8517,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="8.08203125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-    </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+    </row>
+    <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8546,108 +8558,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="128" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="128" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="128" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8658,12 +8670,12 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8673,64 +8685,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="64.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.58203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="4" customWidth="1"/>
     <col min="12" max="1024" width="8.5" style="4" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="135" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="F1" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-    </row>
-    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="F2" s="137" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="F2" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8749,20 +8761,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8788,7 +8800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8805,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H5" s="15">
         <v>5</v>
@@ -8824,7 +8836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -8841,7 +8853,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H6" s="15">
         <v>5</v>
@@ -8860,7 +8872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -8877,26 +8889,26 @@
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H7" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K7" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(H7:K7)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -8913,26 +8925,26 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H8" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I8" s="15">
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K8" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" ref="L8:L17" si="0">SUM(H8:K8)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <f>SUM(H8:K8)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -8949,26 +8961,26 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="15">
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <f>SUM(H9:K9)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -8985,31 +8997,31 @@
         <v>6</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H10" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I10" s="15">
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
+        <f>SUM(H10:K10)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>16</v>
@@ -9018,26 +9030,26 @@
         <v>7</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="15">
-        <v>6</v>
-      </c>
-      <c r="I11" s="15">
+        <v>241</v>
+      </c>
+      <c r="H11" s="171">
+        <v>10</v>
+      </c>
+      <c r="I11" s="171">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
-        <v>2</v>
+      <c r="J11" s="171">
+        <v>9</v>
       </c>
       <c r="K11" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L8:L17" si="0">SUM(H11:K11)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -9050,15 +9062,13 @@
       <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -9071,18 +9081,13 @@
       <c r="D13" s="13">
         <v>15</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -9095,18 +9100,13 @@
       <c r="D14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -9114,23 +9114,18 @@
         <v>30</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -9143,18 +9138,13 @@
       <c r="D16" s="13">
         <v>6</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -9167,18 +9157,13 @@
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -9197,12 +9182,12 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="132" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="8">
         <f>SUM(D12:D18)</f>
         <v>34</v>
@@ -9213,11 +9198,11 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>16</v>
-      </c>
-      <c r="B20" s="129" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -9232,107 +9217,107 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D21" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D22" s="13">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>19</v>
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D23" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D24" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D25" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>21</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D26" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D27" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>37</v>
@@ -9344,9 +9329,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>26</v>
+    <row r="29" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>37</v>
@@ -9358,20 +9343,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="132" t="s">
+    <row r="30" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="8">
         <f>SUM(D20:D29)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>38</v>
@@ -9383,9 +9368,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>38</v>
@@ -9397,9 +9382,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>38</v>
@@ -9411,9 +9396,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>38</v>
@@ -9425,9 +9410,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>38</v>
@@ -9439,9 +9424,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>38</v>
@@ -9453,9 +9438,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>38</v>
@@ -9467,9 +9452,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>38</v>
@@ -9481,9 +9466,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>38</v>
@@ -9495,22 +9480,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="8">
         <f>SUM(D31:D39)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="D41" s="22">
         <f>SUM(D11,D19,D30,D40)</f>
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A19:C19"/>
@@ -9532,226 +9517,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="8.08203125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-    </row>
-    <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+    </row>
+    <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <f>Backlog_Produto!$D$41</f>
         <v>262</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.4</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>6</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <f>B6*B7*2</f>
         <v>60</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f>B11/2</f>
         <v>6.1133333333333333</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f>B4+(B4*B5)</f>
         <v>366.8</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <f>B10/B8*2</f>
         <v>12.226666666666667</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <f>B11/4</f>
         <v>3.0566666666666666</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>20</v>
       </c>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <f>B10*B15</f>
         <v>7336</v>
       </c>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>0.2</v>
       </c>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <f>B16*B17</f>
         <v>1467.2</v>
       </c>
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <f>B16+B18</f>
         <v>8803.2000000000007</v>
       </c>
-      <c r="C19" s="38"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>0.2</v>
       </c>
-      <c r="C20" s="38"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <f>B19*B20</f>
         <v>1760.6400000000003</v>
       </c>
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <f>B19+B21</f>
         <v>10563.84</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9767,19 +9752,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" style="70" customWidth="1"/>
     <col min="2" max="2" width="45.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="72" customWidth="1"/>
-    <col min="4" max="6" width="13.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="70" customWidth="1"/>
+    <col min="4" max="6" width="13.08203125" style="4" customWidth="1"/>
     <col min="7" max="9" width="13" style="4" customWidth="1"/>
     <col min="10" max="10" width="13" style="21" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
@@ -9787,317 +9772,317 @@
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="44">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="43">
         <f>Planejamento!$B$10</f>
         <v>366.8</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="144" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="145" t="s">
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="146" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="53">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="129">
+        <v>45890</v>
+      </c>
+      <c r="D5" s="129">
+        <v>45904</v>
+      </c>
+      <c r="E5" s="130">
+        <v>16</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="129">
+        <v>45891</v>
+      </c>
+      <c r="H5" s="129">
+        <v>45873</v>
+      </c>
+      <c r="I5" s="130">
+        <v>16</v>
+      </c>
+      <c r="J5" s="54">
+        <f>E5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="169">
-        <v>45890</v>
-      </c>
-      <c r="D5" s="169">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="52">
+        <v>2</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="129">
         <v>45904</v>
       </c>
-      <c r="E5" s="170">
-        <v>16</v>
-      </c>
-      <c r="F5" s="172" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="54">
-        <v>43132</v>
-      </c>
-      <c r="H5" s="54">
-        <v>43160</v>
-      </c>
-      <c r="I5" s="55">
-        <v>28</v>
-      </c>
-      <c r="J5" s="56">
-        <f>E5-I5</f>
-        <v>-12</v>
-      </c>
-      <c r="K5" s="57" t="s">
+      <c r="D6" s="129">
+        <v>45918</v>
+      </c>
+      <c r="E6" s="131">
+        <v>34</v>
+      </c>
+      <c r="F6" s="132" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
-        <v>2</v>
-      </c>
-      <c r="B6" s="168" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="169">
-        <v>45904</v>
-      </c>
-      <c r="D6" s="169">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="52">
+        <v>3</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="129">
         <v>45918</v>
       </c>
-      <c r="E6" s="171">
-        <v>34</v>
-      </c>
-      <c r="F6" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
-        <v>3</v>
-      </c>
-      <c r="B7" s="168" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="169">
-        <v>45918</v>
-      </c>
-      <c r="D7" s="169">
+      <c r="D7" s="129">
         <v>45960</v>
       </c>
-      <c r="E7" s="171">
+      <c r="E7" s="131">
         <v>162</v>
       </c>
-      <c r="F7" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="F7" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
         <v>4</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="61">
+      <c r="B8" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="59">
         <v>45960</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>45974</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="60">
         <v>50</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="F8" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="52">
         <v>6</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="52">
         <v>7</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="53">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="53">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="52">
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="52">
         <v>10</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="69">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="67">
         <f>SUM(E5:E14)</f>
         <v>262</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="69">
+      <c r="F15" s="65"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="67">
         <f>SUM(I5:I14)</f>
-        <v>28</v>
-      </c>
-      <c r="J15" s="71">
+        <v>16</v>
+      </c>
+      <c r="J15" s="69">
         <f>SUM(J5:J14)</f>
-        <v>-12</v>
-      </c>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="J16" s="21"/>
     </row>
   </sheetData>
@@ -10108,43 +10093,35 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Unplanned"</formula>
+  <conditionalFormatting sqref="A5:D14">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D14">
     <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>$F5="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>$F5="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Unplanned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H14">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H14">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
-      <formula>$F5="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F14">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$F5="Planned"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H14">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Planejado,Em execução,Entregue,Não planejado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10155,622 +10132,628 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="74" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="74" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="74" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="74" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="74" customWidth="1"/>
-    <col min="8" max="9" width="12.25" style="74" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="74" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="74" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="74" customWidth="1"/>
-    <col min="13" max="14" width="20.5" style="74" customWidth="1"/>
-    <col min="15" max="256" width="8.5" style="74" customWidth="1"/>
-    <col min="257" max="258" width="6.5" style="74" customWidth="1"/>
-    <col min="259" max="259" width="13.875" style="74" customWidth="1"/>
-    <col min="260" max="260" width="9" style="74" customWidth="1"/>
-    <col min="261" max="261" width="13.5" style="74" customWidth="1"/>
-    <col min="262" max="262" width="10" style="74" customWidth="1"/>
-    <col min="263" max="263" width="12.25" style="74" customWidth="1"/>
-    <col min="264" max="264" width="5.875" style="74" customWidth="1"/>
-    <col min="265" max="265" width="24.25" style="74" customWidth="1"/>
-    <col min="266" max="266" width="32.5" style="74" customWidth="1"/>
-    <col min="267" max="267" width="17.625" style="74" customWidth="1"/>
-    <col min="268" max="268" width="8.5" style="74" customWidth="1"/>
-    <col min="269" max="270" width="20.5" style="74" customWidth="1"/>
-    <col min="271" max="512" width="8.5" style="74" customWidth="1"/>
-    <col min="513" max="514" width="6.5" style="74" customWidth="1"/>
-    <col min="515" max="515" width="13.875" style="74" customWidth="1"/>
-    <col min="516" max="516" width="9" style="74" customWidth="1"/>
-    <col min="517" max="517" width="13.5" style="74" customWidth="1"/>
-    <col min="518" max="518" width="10" style="74" customWidth="1"/>
-    <col min="519" max="519" width="12.25" style="74" customWidth="1"/>
-    <col min="520" max="520" width="5.875" style="74" customWidth="1"/>
-    <col min="521" max="521" width="24.25" style="74" customWidth="1"/>
-    <col min="522" max="522" width="32.5" style="74" customWidth="1"/>
-    <col min="523" max="523" width="17.625" style="74" customWidth="1"/>
-    <col min="524" max="524" width="8.5" style="74" customWidth="1"/>
-    <col min="525" max="526" width="20.5" style="74" customWidth="1"/>
-    <col min="527" max="768" width="8.5" style="74" customWidth="1"/>
-    <col min="769" max="770" width="6.5" style="74" customWidth="1"/>
-    <col min="771" max="771" width="13.875" style="74" customWidth="1"/>
-    <col min="772" max="772" width="9" style="74" customWidth="1"/>
-    <col min="773" max="773" width="13.5" style="74" customWidth="1"/>
-    <col min="774" max="774" width="10" style="74" customWidth="1"/>
-    <col min="775" max="775" width="12.25" style="74" customWidth="1"/>
-    <col min="776" max="776" width="5.875" style="74" customWidth="1"/>
-    <col min="777" max="777" width="24.25" style="74" customWidth="1"/>
-    <col min="778" max="778" width="32.5" style="74" customWidth="1"/>
-    <col min="779" max="779" width="17.625" style="74" customWidth="1"/>
-    <col min="780" max="780" width="8.5" style="74" customWidth="1"/>
-    <col min="781" max="782" width="20.5" style="74" customWidth="1"/>
-    <col min="783" max="1024" width="8.5" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="35.58203125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="72" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="72" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="72" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="72" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="72" customWidth="1"/>
+    <col min="8" max="9" width="12.25" style="72" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="72" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="72" customWidth="1"/>
+    <col min="13" max="14" width="20.5" style="72" customWidth="1"/>
+    <col min="15" max="256" width="8.5" style="72" customWidth="1"/>
+    <col min="257" max="258" width="6.5" style="72" customWidth="1"/>
+    <col min="259" max="259" width="13.83203125" style="72" customWidth="1"/>
+    <col min="260" max="260" width="9" style="72" customWidth="1"/>
+    <col min="261" max="261" width="13.5" style="72" customWidth="1"/>
+    <col min="262" max="262" width="10" style="72" customWidth="1"/>
+    <col min="263" max="263" width="12.25" style="72" customWidth="1"/>
+    <col min="264" max="264" width="5.83203125" style="72" customWidth="1"/>
+    <col min="265" max="265" width="24.25" style="72" customWidth="1"/>
+    <col min="266" max="266" width="32.5" style="72" customWidth="1"/>
+    <col min="267" max="267" width="17.58203125" style="72" customWidth="1"/>
+    <col min="268" max="268" width="8.5" style="72" customWidth="1"/>
+    <col min="269" max="270" width="20.5" style="72" customWidth="1"/>
+    <col min="271" max="512" width="8.5" style="72" customWidth="1"/>
+    <col min="513" max="514" width="6.5" style="72" customWidth="1"/>
+    <col min="515" max="515" width="13.83203125" style="72" customWidth="1"/>
+    <col min="516" max="516" width="9" style="72" customWidth="1"/>
+    <col min="517" max="517" width="13.5" style="72" customWidth="1"/>
+    <col min="518" max="518" width="10" style="72" customWidth="1"/>
+    <col min="519" max="519" width="12.25" style="72" customWidth="1"/>
+    <col min="520" max="520" width="5.83203125" style="72" customWidth="1"/>
+    <col min="521" max="521" width="24.25" style="72" customWidth="1"/>
+    <col min="522" max="522" width="32.5" style="72" customWidth="1"/>
+    <col min="523" max="523" width="17.58203125" style="72" customWidth="1"/>
+    <col min="524" max="524" width="8.5" style="72" customWidth="1"/>
+    <col min="525" max="526" width="20.5" style="72" customWidth="1"/>
+    <col min="527" max="768" width="8.5" style="72" customWidth="1"/>
+    <col min="769" max="770" width="6.5" style="72" customWidth="1"/>
+    <col min="771" max="771" width="13.83203125" style="72" customWidth="1"/>
+    <col min="772" max="772" width="9" style="72" customWidth="1"/>
+    <col min="773" max="773" width="13.5" style="72" customWidth="1"/>
+    <col min="774" max="774" width="10" style="72" customWidth="1"/>
+    <col min="775" max="775" width="12.25" style="72" customWidth="1"/>
+    <col min="776" max="776" width="5.83203125" style="72" customWidth="1"/>
+    <col min="777" max="777" width="24.25" style="72" customWidth="1"/>
+    <col min="778" max="778" width="32.5" style="72" customWidth="1"/>
+    <col min="779" max="779" width="17.58203125" style="72" customWidth="1"/>
+    <col min="780" max="780" width="8.5" style="72" customWidth="1"/>
+    <col min="781" max="782" width="20.5" style="72" customWidth="1"/>
+    <col min="783" max="1024" width="8.5" style="72" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:11" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="75" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="76" t="s">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="74" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="76" t="s">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="76" t="s">
+    <row r="7" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="76" t="s">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="76" t="s">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="76" t="s">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="76" t="s">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="76" t="s">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="76" t="s">
+    <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="76" t="s">
+    <row r="14" spans="1:11" ht="21.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="75" t="s">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="76" t="s">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="76" t="s">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="76" t="s">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="75" t="s">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="76" t="s">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="74" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="76" t="s">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="76" t="s">
+    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="75" t="s">
+    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="76" t="s">
+    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="76" t="s">
+    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="76" t="s">
+    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="76" t="s">
+    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="75" t="s">
+    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="76" t="s">
+    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="76" t="s">
+    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="76" t="s">
+    <row r="31" spans="4:4" s="75" customFormat="1" ht="10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="4:4" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="78" t="s">
+    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="79" t="s">
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="157" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="148" t="s">
+      <c r="E33" s="157"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="74">
+        <v>4290</v>
+      </c>
+      <c r="E34" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="148"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="76">
-        <v>4290</v>
-      </c>
-      <c r="E34" s="76" t="s">
+    </row>
+    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="74">
+        <v>5082</v>
+      </c>
+      <c r="E35" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="76">
-        <v>5082</v>
-      </c>
-      <c r="E35" s="76" t="s">
+    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="74">
+        <v>4356</v>
+      </c>
+      <c r="E36" s="74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="76">
-        <v>4356</v>
-      </c>
-      <c r="E36" s="76" t="s">
+    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="74">
+        <v>5929</v>
+      </c>
+      <c r="E37" s="74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="76">
-        <v>5929</v>
-      </c>
-      <c r="E37" s="76" t="s">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="74">
+        <v>5005</v>
+      </c>
+      <c r="E38" s="74" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="76">
-        <v>5005</v>
-      </c>
-      <c r="E38" s="76" t="s">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="74">
+        <v>4225</v>
+      </c>
+      <c r="E39" s="74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="76">
-        <v>4225</v>
-      </c>
-      <c r="E39" s="76" t="s">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="158" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="149" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
+    </row>
+    <row r="42" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-    </row>
-    <row r="42" spans="1:11" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="150" t="s">
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+    </row>
+    <row r="43" spans="1:11" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-    </row>
-    <row r="43" spans="1:11" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="151" t="s">
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+    </row>
+    <row r="44" spans="1:11" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-    </row>
-    <row r="44" spans="1:11" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="147" t="s">
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+    </row>
+    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-    </row>
-    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+    </row>
+    <row r="47" spans="1:11" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
-    </row>
-    <row r="47" spans="1:11" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="155" t="s">
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+    </row>
+    <row r="48" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="154"/>
+      <c r="B48" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-    </row>
-    <row r="48" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="156"/>
-      <c r="B48" s="152" t="s">
+      <c r="C48" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="152" t="s">
+      <c r="D48" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="152" t="s">
+      <c r="E48" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="152" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="152" t="s">
+      <c r="G48" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="152" t="s">
-        <v>106</v>
-      </c>
-      <c r="H48" s="157" t="s">
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+    </row>
+    <row r="49" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="154"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-    </row>
-    <row r="49" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="156"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152" t="s">
+      <c r="I49" s="150"/>
+      <c r="J49" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="I49" s="152"/>
-      <c r="J49" s="83" t="s">
+      <c r="K49" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="83" t="s">
+    </row>
+    <row r="50" spans="1:11" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="83">
+        <v>1</v>
+      </c>
+      <c r="B50" s="84" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="84" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="85">
-        <v>1</v>
-      </c>
-      <c r="B50" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="87">
+      <c r="C50" s="85">
         <v>43891</v>
       </c>
-      <c r="D50" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="89" t="str">
+      <c r="D50" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="87" t="str">
         <f t="shared" ref="F50:F60" si="0">IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,0)))</f>
         <v>Média</v>
       </c>
-      <c r="G50" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="89" t="e">
+      <c r="G50" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="83"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="88"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-    </row>
-    <row r="52" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89" t="e">
+      <c r="G51" s="86"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+    </row>
+    <row r="52" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="88"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-    </row>
-    <row r="53" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="89" t="e">
+      <c r="G52" s="86"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+    </row>
+    <row r="53" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="88"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-    </row>
-    <row r="54" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89" t="e">
+      <c r="G53" s="86"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+    </row>
+    <row r="54" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-    </row>
-    <row r="55" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89" t="e">
+      <c r="G54" s="86"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+    </row>
+    <row r="55" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="83"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-    </row>
-    <row r="56" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89" t="e">
+      <c r="G55" s="86"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+    </row>
+    <row r="56" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="83"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-    </row>
-    <row r="57" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89" t="e">
+      <c r="G56" s="86"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+    </row>
+    <row r="57" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="83"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-    </row>
-    <row r="58" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="89" t="e">
+      <c r="G57" s="86"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+    </row>
+    <row r="58" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="83"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-    </row>
-    <row r="59" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89" t="e">
+      <c r="G58" s="86"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+    </row>
+    <row r="59" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="83"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-    </row>
-    <row r="60" spans="1:11" s="84" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89" t="e">
+      <c r="G59" s="86"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+    </row>
+    <row r="60" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="83"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G60" s="88"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10785,39 +10768,29 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
       <formula>$D$15</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>$D$17</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$D$15:$D$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>$D$19:$D$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>$D$23:$D$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$D$4:$D$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -10829,459 +10802,459 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="37.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="1024" width="8.125" style="1" customWidth="1"/>
+    <col min="15" max="1024" width="8.08203125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:23" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+    </row>
+    <row r="2" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+    </row>
+    <row r="3" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-    </row>
-    <row r="2" spans="1:23" s="93" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-    </row>
-    <row r="3" spans="1:23" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="162" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+    </row>
+    <row r="4" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-    </row>
-    <row r="4" spans="1:23" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+    </row>
+    <row r="5" spans="1:23" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-    </row>
-    <row r="5" spans="1:23" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-    </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="158" t="s">
+      <c r="B7" s="161"/>
+      <c r="D7" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="D7" s="158" t="s">
+      <c r="E7" s="161"/>
+      <c r="G7" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="G7" s="158" t="s">
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="M7" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="M7" s="158" t="s">
+      <c r="N7" s="161"/>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="158"/>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="B8" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="D8" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="E8" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="96" t="s">
+      <c r="H8" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="I8" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="97" t="s">
+      <c r="K8" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="M8" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="N8" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="97" t="s">
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="B9" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="94" t="s">
+      <c r="E9" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="94">
+      <c r="H9" s="92">
         <v>2</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="92">
         <v>0</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="92">
         <v>0</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="95">
         <f>(H9*4)+(I9*6)+(J9*8)</f>
         <v>8</v>
       </c>
-      <c r="M9" s="98" t="s">
+      <c r="M9" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="97"/>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="N9" s="99"/>
-    </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
+      <c r="B10" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="G10" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="G10" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="97">
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="95">
         <f>(H10*3)+(I10*4)+(J10*6)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="98" t="s">
+      <c r="M10" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="97"/>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="G11" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="N10" s="99"/>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="G11" s="158" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="M11" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="M11" s="98" t="s">
+      <c r="N11" s="97"/>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="G12" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="N11" s="99"/>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="G12" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="98" t="s">
+      <c r="N12" s="97"/>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="G13" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="N12" s="99"/>
-    </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="G13" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="94">
+      <c r="H13" s="92">
         <v>1</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="97">
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="95">
         <f>(H13*3)+(I13*4)+(J13*6)</f>
         <v>3</v>
       </c>
-      <c r="M13" s="98" t="s">
+      <c r="M13" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="97"/>
+      <c r="W13" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="99"/>
-      <c r="W13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="G14" s="94" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
-      <c r="B14" s="95"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="G14" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="97">
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="95">
         <f>(H14*4)+(I14*5)+(J14*7)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="98" t="s">
+      <c r="M14" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="97"/>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="G15" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="99"/>
-    </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="95"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="G15" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="94">
+      <c r="H15" s="92">
         <v>1</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="97">
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="95">
         <f>(H15*3)+(I15*4)+(J15*6)</f>
         <v>3</v>
       </c>
-      <c r="M15" s="98" t="s">
+      <c r="M15" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" s="97"/>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="G16" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="N15" s="99"/>
-    </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
-      <c r="B16" s="95"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="G16" s="159" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="100">
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="98">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
-      <c r="M16" s="98" t="s">
+      <c r="M16" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" s="97"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="M17" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="N16" s="99"/>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="M17" s="98" t="s">
+      <c r="N17" s="97"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="M18" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="N17" s="99"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
-      <c r="B18" s="95"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="M18" s="98" t="s">
+      <c r="N18" s="97"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="M19" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="N18" s="99"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="M19" s="98" t="s">
+      <c r="N19" s="97"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="M20" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="N19" s="99"/>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
-      <c r="B20" s="95"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="M20" s="98" t="s">
+      <c r="N20" s="97"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="M21" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="N20" s="99"/>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M21" s="98" t="s">
+      <c r="N21" s="97"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="M22" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="N21" s="99"/>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M22" s="98" t="s">
+      <c r="N22" s="97"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="M23" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="N22" s="99"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M23" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="N23" s="102">
+      <c r="N23" s="100">
         <f>SUM(N9:N22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M24" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="100">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M24" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24" s="98">
         <f>(N23*0.01)+0.65</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="N25" s="103">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M25" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="101">
         <f>K16*N24</f>
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M26" s="101" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M26" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" s="102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="M27" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="N26" s="104">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="N27" s="106">
+      <c r="N27" s="104">
         <f>N25*N26</f>
         <v>172.9</v>
       </c>
@@ -11301,10 +11274,10 @@
     <mergeCell ref="M7:N7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Simples,Média,Complexa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11317,718 +11290,718 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="24" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.58203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="1" customWidth="1"/>
-    <col min="15" max="1024" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.08203125" style="1" customWidth="1"/>
+    <col min="15" max="1024" width="8.08203125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-    </row>
-    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="166" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+    </row>
+    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="E3" s="166" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="E3" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="108">
+      <c r="B4" s="106">
         <f>'#Estimativa-APF#'!$N$27</f>
         <v>172.9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="170" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="168"/>
+      <c r="N4" s="107"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="165"/>
-      <c r="N4" s="109"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="E5" s="170"/>
+      <c r="F5" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="168"/>
+      <c r="N5" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="165"/>
-      <c r="N5" s="41" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="108" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="111">
+      <c r="B6" s="109">
         <f>B4+(B4*B5)</f>
         <v>242.06</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="112">
+      <c r="E6" s="170"/>
+      <c r="F6" s="110">
         <f>B6*G6</f>
         <v>12.103000000000002</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="111">
         <v>0.05</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="110">
         <f>B4*I6</f>
         <v>34.580000000000005</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="111">
         <v>0.2</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="110">
         <f>B4*K6</f>
         <v>112.38500000000001</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="111">
         <v>0.65</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="110">
         <f>B4*M6</f>
         <v>17.290000000000003</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="111">
         <v>0.1</v>
       </c>
-      <c r="N6" s="112"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="N6" s="110"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="E7" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="31">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="E7" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="112">
+      <c r="F7" s="110">
         <f>F6*G7</f>
         <v>6.6566500000000017</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="111">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H7" s="112">
+      <c r="H7" s="110">
         <f>H6*I7</f>
         <v>10.374000000000001</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="111">
         <v>0.3</v>
       </c>
-      <c r="J7" s="112">
+      <c r="J7" s="110">
         <f>J6*K7</f>
         <v>13.4862</v>
       </c>
-      <c r="K7" s="113">
+      <c r="K7" s="111">
         <v>0.12</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="110">
         <f>L6*M7</f>
         <v>0.86450000000000016</v>
       </c>
-      <c r="M7" s="113">
+      <c r="M7" s="111">
         <v>0.05</v>
       </c>
-      <c r="N7" s="115">
+      <c r="N7" s="113">
         <f>SUM(F7,H7,J7,L7)</f>
         <v>31.381350000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="30">
+        <v>40</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="31">
-        <v>40</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="E8" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="112">
+      <c r="F8" s="110">
         <f>F6*G8</f>
         <v>1.8154500000000002</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="111">
         <v>0.15</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="110">
         <f>H6*I8</f>
         <v>6.9160000000000013</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="111">
         <v>0.2</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="110">
         <f>J6*K8</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K8" s="113">
+      <c r="K8" s="111">
         <v>0.1</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="110">
         <f>L6*M8</f>
         <v>0.86450000000000016</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="111">
         <v>0.05</v>
       </c>
-      <c r="N8" s="115">
+      <c r="N8" s="113">
         <f>SUM(F8,H8,J8,L8)</f>
         <v>20.834450000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="31">
-        <v>2</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="112">
+      <c r="F9" s="110">
         <f>F6*G9</f>
         <v>0.24206000000000003</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="111">
         <v>0.02</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="110">
         <f>H6*I9</f>
         <v>6.9160000000000013</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="111">
         <v>0.2</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="110">
         <f>J6*K9</f>
         <v>44.954000000000008</v>
       </c>
-      <c r="K9" s="113">
+      <c r="K9" s="111">
         <v>0.4</v>
       </c>
-      <c r="L9" s="112">
+      <c r="L9" s="110">
         <f>L6*M9</f>
         <v>2.5935000000000001</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="111">
         <v>0.15</v>
       </c>
-      <c r="N9" s="115">
+      <c r="N9" s="113">
         <f>SUM(F9,H9,J9,L9)</f>
         <v>54.705560000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="117">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="115">
         <f>(B7*B8)*B9</f>
         <v>80</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="112">
+      <c r="E10" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="110">
         <f>F6*G10</f>
         <v>0.60515000000000008</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="111">
         <v>0.05</v>
       </c>
-      <c r="H10" s="112">
+      <c r="H10" s="110">
         <f>H6*I10</f>
         <v>2.7664000000000004</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="111">
         <v>0.08</v>
       </c>
-      <c r="J10" s="112">
+      <c r="J10" s="110">
         <f>J6*K10</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K10" s="113">
+      <c r="K10" s="111">
         <v>0.1</v>
       </c>
-      <c r="L10" s="112">
+      <c r="L10" s="110">
         <f>L6*M10</f>
         <v>1.7290000000000003</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="111">
         <v>0.1</v>
       </c>
-      <c r="N10" s="115">
+      <c r="N10" s="113">
         <f>SUM(F10,H10,J10,L10)</f>
         <v>16.339050000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="118">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="116">
         <f>B6/B10*2</f>
         <v>6.0514999999999999</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="114" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="112">
+      <c r="E11" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="110">
         <f>F6*G11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="111">
         <v>0</v>
       </c>
-      <c r="H11" s="112">
+      <c r="H11" s="110">
         <f>H6*I11</f>
         <v>0.6916000000000001</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="111">
         <v>0.02</v>
       </c>
-      <c r="J11" s="112">
+      <c r="J11" s="110">
         <f>J6*K11</f>
         <v>5.619250000000001</v>
       </c>
-      <c r="K11" s="113">
+      <c r="K11" s="111">
         <v>0.05</v>
       </c>
-      <c r="L11" s="112">
+      <c r="L11" s="110">
         <f>L6*M11</f>
         <v>1.7290000000000003</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="111">
         <v>0.1</v>
       </c>
-      <c r="N11" s="115">
+      <c r="N11" s="113">
         <f>SUM(F11,H11,J11,L11)</f>
         <v>8.0398500000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="118">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="116">
         <f>B11/4</f>
         <v>1.512875</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="120">
+      <c r="E12" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="118">
         <f t="shared" ref="F12:M12" si="0">SUM(F7:F11)</f>
         <v>9.3193100000000015</v>
       </c>
-      <c r="G12" s="121">
+      <c r="G12" s="119">
         <f t="shared" si="0"/>
         <v>0.77000000000000013</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="118">
         <f t="shared" si="0"/>
         <v>27.664000000000005</v>
       </c>
-      <c r="I12" s="121">
+      <c r="I12" s="119">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J12" s="120">
+      <c r="J12" s="118">
         <f t="shared" si="0"/>
         <v>86.536450000000002</v>
       </c>
-      <c r="K12" s="121">
+      <c r="K12" s="119">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="L12" s="120">
+      <c r="L12" s="118">
         <f t="shared" si="0"/>
         <v>7.7805000000000009</v>
       </c>
-      <c r="M12" s="121">
+      <c r="M12" s="119">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="N12" s="119"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="122">
+      <c r="N12" s="117"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="120">
         <f>B11/B9</f>
         <v>3.0257499999999999</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="114" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="112">
+      <c r="F13" s="110">
         <f>F6*G13</f>
         <v>0.36309000000000002</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="111">
         <v>0.03</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="110">
         <f>H6*I13</f>
         <v>2.7664000000000004</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="111">
         <v>0.08</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="110">
         <f>J6*K13</f>
         <v>14.610050000000001</v>
       </c>
-      <c r="K13" s="113">
+      <c r="K13" s="111">
         <v>0.13</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="110">
         <f>L6*M13</f>
         <v>5.1870000000000003</v>
       </c>
-      <c r="M13" s="113">
+      <c r="M13" s="111">
         <v>0.3</v>
       </c>
-      <c r="N13" s="115">
+      <c r="N13" s="113">
         <f>SUM(F13,H13,J13,L13)</f>
         <v>22.926540000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="114" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="112">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="110">
         <f>F6*G14</f>
         <v>2.4206000000000003</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="111">
         <v>0.2</v>
       </c>
-      <c r="H14" s="112">
+      <c r="H14" s="110">
         <f>H6*I14</f>
         <v>4.1496000000000004</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="111">
         <v>0.12</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="110">
         <f>J6*K14</f>
         <v>11.238500000000002</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="111">
         <v>0.1</v>
       </c>
-      <c r="L14" s="112">
+      <c r="L14" s="110">
         <f>L6*M14</f>
         <v>4.3225000000000007</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="111">
         <v>0.25</v>
       </c>
-      <c r="N14" s="115">
+      <c r="N14" s="113">
         <f>SUM(F14,H14,J14,L14)</f>
         <v>22.131200000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="119" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="120">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E15" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="118">
         <f t="shared" ref="F15:M15" si="1">SUM(F13:F14)</f>
         <v>2.7836900000000004</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="119">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="118">
         <f t="shared" si="1"/>
         <v>6.9160000000000004</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="119">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="118">
         <f t="shared" si="1"/>
         <v>25.848550000000003</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="119">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="L15" s="120">
+      <c r="L15" s="118">
         <f t="shared" si="1"/>
         <v>9.509500000000001</v>
       </c>
-      <c r="M15" s="121">
+      <c r="M15" s="119">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N15" s="119"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="166" t="s">
+      <c r="N15" s="117"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="E16" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="123">
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="E16" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="121">
         <f t="shared" ref="F16:M16" si="2">F12+F15</f>
         <v>12.103000000000002</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="122">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="121">
         <f t="shared" si="2"/>
         <v>34.580000000000005</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="122">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J16" s="121">
         <f t="shared" si="2"/>
         <v>112.38500000000001</v>
       </c>
-      <c r="K16" s="124">
+      <c r="K16" s="122">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="121">
         <f t="shared" si="2"/>
         <v>17.290000000000003</v>
       </c>
-      <c r="M16" s="124">
+      <c r="M16" s="122">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N16" s="125">
+      <c r="N16" s="123">
         <f>SUM(N7:N11,N13,N14)</f>
         <v>176.35800000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="124">
         <v>20</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="N17" s="70"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="C17" s="37"/>
+      <c r="N17" s="68"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <f>B6*B17</f>
         <v>4841.2</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="L18" s="70"/>
-      <c r="N18" s="70"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="C18" s="37"/>
+      <c r="L18" s="68"/>
+      <c r="N18" s="68"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>0.2</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="N19" s="70"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="37"/>
+      <c r="N19" s="68"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="39">
         <f>B18*B19</f>
         <v>968.24</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="L20" s="70"/>
-      <c r="N20" s="70"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="127">
+      <c r="C20" s="37"/>
+      <c r="L20" s="68"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="125">
         <f>B18+B20</f>
         <v>5809.44</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="N21" s="70"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="C21" s="37"/>
+      <c r="N21" s="68"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>0.2</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="J22" s="70"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="C22" s="37"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <f>B21*B22</f>
         <v>1161.8879999999999</v>
       </c>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="127">
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="125">
         <f>B21+B23</f>
         <v>6971.3279999999995</v>
       </c>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="70"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="70"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="70"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="70"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J27" s="68"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N28" s="68"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N29" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/6.Gerenciamento de Projeto/Planilha_de_Planejamento_e_Controle_do_Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/Planilha_de_Planejamento_e_Controle_do_Projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f3bac6445a88293/Atividades IFSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0389ced0b37d311/Desktop/EvT---Eventos-Tech/6.Gerenciamento de Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6E0201-F1F3-45CF-9B42-F6E14EE4BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -6520,6 +6520,10 @@
     <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6576,6 +6580,21 @@
     <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6590,21 +6609,6 @@
     <xf numFmtId="164" fontId="30" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6634,10 +6638,6 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -6654,7 +6654,7 @@
     <cellStyle name="Excel Built-in Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Heading" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Heading1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Hiperlink" xfId="16" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Result2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -8524,30 +8524,30 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.08203125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="8.125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-    </row>
-    <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="134" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+    </row>
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>219</v>
       </c>
@@ -8624,42 +8624,42 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8688,61 +8688,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="64.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="1.58203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="4" customWidth="1"/>
     <col min="12" max="1024" width="8.5" style="4" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="F1" s="138" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="F1" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-    </row>
-    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="F2" s="140" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="F2" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8761,20 +8761,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8832,11 +8832,11 @@
         <v>4</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(H5:K5)</f>
+        <f t="shared" ref="L5:L10" si="0">SUM(H5:K5)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -8868,11 +8868,11 @@
         <v>8</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(H6:K6)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -8904,11 +8904,11 @@
         <v>7</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(H7:K7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -8940,11 +8940,11 @@
         <v>7</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(H8:K8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -8976,11 +8976,11 @@
         <v>6</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(H9:K9)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -9012,16 +9012,16 @@
         <v>4</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(H10:K10)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>16</v>
@@ -9032,24 +9032,24 @@
       <c r="G11" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="171">
+      <c r="H11" s="133">
         <v>10</v>
       </c>
-      <c r="I11" s="171">
+      <c r="I11" s="133">
         <v>0</v>
       </c>
-      <c r="J11" s="171">
+      <c r="J11" s="133">
         <v>9</v>
       </c>
       <c r="K11" s="15">
         <v>4</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" ref="L8:L17" si="0">SUM(H11:K11)</f>
+        <f t="shared" ref="L11" si="1">SUM(H11:K11)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -9106,7 +9106,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -9163,7 +9163,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -9182,12 +9182,12 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="135" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="8">
         <f>SUM(D12:D18)</f>
         <v>34</v>
@@ -9198,7 +9198,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>16</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>17</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>19</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>20</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>22</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>23</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -9343,18 +9343,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="135" t="s">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="8">
         <f>SUM(D20:D29)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>25</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>26</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>27</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>28</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>29</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>30</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>31</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>32</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>33</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -9489,13 +9489,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D41" s="22">
         <f>SUM(D11,D19,D30,D40)</f>
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A19:C19"/>
@@ -9524,31 +9524,31 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.08203125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="8.125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-    </row>
-    <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="145" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+    </row>
+    <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>48</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>50</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>55</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>56</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>58</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>61</v>
       </c>
@@ -9654,14 +9654,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="145" t="s">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>64</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="C15" s="37"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>65</v>
       </c>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C16" s="37"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>66</v>
       </c>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="C17" s="37"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>67</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C18" s="37"/>
     </row>
-    <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>68</v>
       </c>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="C19" s="37"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>69</v>
       </c>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>70</v>
       </c>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>71</v>
       </c>
@@ -9755,16 +9755,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="70" customWidth="1"/>
     <col min="2" max="2" width="45.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="70" customWidth="1"/>
-    <col min="4" max="6" width="13.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="70" customWidth="1"/>
+    <col min="4" max="6" width="13.125" style="4" customWidth="1"/>
     <col min="7" max="9" width="13" style="4" customWidth="1"/>
     <col min="10" max="10" width="13" style="21" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
@@ -9772,59 +9772,59 @@
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="147" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="43">
         <f>Planejamento!$B$10</f>
         <v>366.8</v>
       </c>
       <c r="F2" s="44"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="43"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="49"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>76</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
         <v>1</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>2</v>
       </c>
@@ -9920,7 +9920,7 @@
       <c r="J6" s="57"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>3</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52">
         <v>4</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="J8" s="62"/>
       <c r="K8" s="63"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52">
         <v>5</v>
       </c>
@@ -9985,7 +9985,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="63"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="52">
         <v>6</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="63"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="52">
         <v>7</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="63"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="52">
         <v>8</v>
       </c>
@@ -10030,7 +10030,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="52">
         <v>9</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="52">
         <v>10</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="64"/>
       <c r="B15" s="65"/>
       <c r="C15" s="66"/>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="K15" s="68"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="J16" s="21"/>
     </row>
   </sheetData>
@@ -10139,236 +10139,236 @@
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="35.58203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="72" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="72" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="72" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="72" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="72" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="72" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="72" customWidth="1"/>
     <col min="8" max="9" width="12.25" style="72" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="72" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="72" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="72" customWidth="1"/>
     <col min="13" max="14" width="20.5" style="72" customWidth="1"/>
     <col min="15" max="256" width="8.5" style="72" customWidth="1"/>
     <col min="257" max="258" width="6.5" style="72" customWidth="1"/>
-    <col min="259" max="259" width="13.83203125" style="72" customWidth="1"/>
+    <col min="259" max="259" width="13.875" style="72" customWidth="1"/>
     <col min="260" max="260" width="9" style="72" customWidth="1"/>
     <col min="261" max="261" width="13.5" style="72" customWidth="1"/>
     <col min="262" max="262" width="10" style="72" customWidth="1"/>
     <col min="263" max="263" width="12.25" style="72" customWidth="1"/>
-    <col min="264" max="264" width="5.83203125" style="72" customWidth="1"/>
+    <col min="264" max="264" width="5.875" style="72" customWidth="1"/>
     <col min="265" max="265" width="24.25" style="72" customWidth="1"/>
     <col min="266" max="266" width="32.5" style="72" customWidth="1"/>
-    <col min="267" max="267" width="17.58203125" style="72" customWidth="1"/>
+    <col min="267" max="267" width="17.625" style="72" customWidth="1"/>
     <col min="268" max="268" width="8.5" style="72" customWidth="1"/>
     <col min="269" max="270" width="20.5" style="72" customWidth="1"/>
     <col min="271" max="512" width="8.5" style="72" customWidth="1"/>
     <col min="513" max="514" width="6.5" style="72" customWidth="1"/>
-    <col min="515" max="515" width="13.83203125" style="72" customWidth="1"/>
+    <col min="515" max="515" width="13.875" style="72" customWidth="1"/>
     <col min="516" max="516" width="9" style="72" customWidth="1"/>
     <col min="517" max="517" width="13.5" style="72" customWidth="1"/>
     <col min="518" max="518" width="10" style="72" customWidth="1"/>
     <col min="519" max="519" width="12.25" style="72" customWidth="1"/>
-    <col min="520" max="520" width="5.83203125" style="72" customWidth="1"/>
+    <col min="520" max="520" width="5.875" style="72" customWidth="1"/>
     <col min="521" max="521" width="24.25" style="72" customWidth="1"/>
     <col min="522" max="522" width="32.5" style="72" customWidth="1"/>
-    <col min="523" max="523" width="17.58203125" style="72" customWidth="1"/>
+    <col min="523" max="523" width="17.625" style="72" customWidth="1"/>
     <col min="524" max="524" width="8.5" style="72" customWidth="1"/>
     <col min="525" max="526" width="20.5" style="72" customWidth="1"/>
     <col min="527" max="768" width="8.5" style="72" customWidth="1"/>
     <col min="769" max="770" width="6.5" style="72" customWidth="1"/>
-    <col min="771" max="771" width="13.83203125" style="72" customWidth="1"/>
+    <col min="771" max="771" width="13.875" style="72" customWidth="1"/>
     <col min="772" max="772" width="9" style="72" customWidth="1"/>
     <col min="773" max="773" width="13.5" style="72" customWidth="1"/>
     <col min="774" max="774" width="10" style="72" customWidth="1"/>
     <col min="775" max="775" width="12.25" style="72" customWidth="1"/>
-    <col min="776" max="776" width="5.83203125" style="72" customWidth="1"/>
+    <col min="776" max="776" width="5.875" style="72" customWidth="1"/>
     <col min="777" max="777" width="24.25" style="72" customWidth="1"/>
     <col min="778" max="778" width="32.5" style="72" customWidth="1"/>
-    <col min="779" max="779" width="17.58203125" style="72" customWidth="1"/>
+    <col min="779" max="779" width="17.625" style="72" customWidth="1"/>
     <col min="780" max="780" width="8.5" style="72" customWidth="1"/>
     <col min="781" max="782" width="20.5" style="72" customWidth="1"/>
     <col min="783" max="1024" width="8.5" style="72" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:11" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="74" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="74" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="4:4" s="75" customFormat="1" ht="10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" s="75" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="157" t="s">
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="157"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="152"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="74">
         <v>4290</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D35" s="74">
         <v>5082</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D36" s="74">
         <v>4356</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D37" s="74">
         <v>5929</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D38" s="74">
         <v>5005</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D39" s="74">
         <v>4225</v>
       </c>
@@ -10416,139 +10416,139 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="158" t="s">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-    </row>
-    <row r="42" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="159" t="s">
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+    </row>
+    <row r="42" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-    </row>
-    <row r="43" spans="1:11" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="160" t="s">
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+    </row>
+    <row r="43" spans="1:11" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="155" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
-    </row>
-    <row r="44" spans="1:11" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="156" t="s">
+      <c r="B43" s="155"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+    </row>
+    <row r="44" spans="1:11" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-    </row>
-    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="152" t="s">
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+    </row>
+    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-    </row>
-    <row r="47" spans="1:11" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="158"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="158"/>
+    </row>
+    <row r="47" spans="1:11" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78" t="s">
         <v>128</v>
       </c>
       <c r="B47" s="79"/>
-      <c r="C47" s="153" t="s">
+      <c r="C47" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-    </row>
-    <row r="48" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="154"/>
-      <c r="B48" s="150" t="s">
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+    </row>
+    <row r="48" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="160"/>
+      <c r="B48" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="150" t="s">
+      <c r="C48" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="150" t="s">
+      <c r="D48" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="150" t="s">
+      <c r="F48" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="150" t="s">
+      <c r="G48" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="155" t="s">
+      <c r="H48" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-    </row>
-    <row r="49" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="154"/>
-      <c r="B49" s="150"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150" t="s">
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+    </row>
+    <row r="49" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="160"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="I49" s="150"/>
+      <c r="I49" s="156"/>
       <c r="J49" s="81" t="s">
         <v>136</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83">
         <v>1</v>
       </c>
@@ -10579,14 +10579,14 @@
       <c r="G50" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
       <c r="J50" s="88"/>
       <c r="K50" s="88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="84"/>
       <c r="C51" s="85"/>
@@ -10602,7 +10602,7 @@
       <c r="J51" s="88"/>
       <c r="K51" s="88"/>
     </row>
-    <row r="52" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="83"/>
       <c r="B52" s="84"/>
       <c r="C52" s="85"/>
@@ -10618,7 +10618,7 @@
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
     </row>
-    <row r="53" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="83"/>
       <c r="B53" s="84"/>
       <c r="C53" s="85"/>
@@ -10634,7 +10634,7 @@
       <c r="J53" s="88"/>
       <c r="K53" s="88"/>
     </row>
-    <row r="54" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="83"/>
       <c r="B54" s="84"/>
       <c r="C54" s="85"/>
@@ -10650,7 +10650,7 @@
       <c r="J54" s="88"/>
       <c r="K54" s="88"/>
     </row>
-    <row r="55" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="83"/>
       <c r="B55" s="84"/>
       <c r="C55" s="85"/>
@@ -10666,7 +10666,7 @@
       <c r="J55" s="88"/>
       <c r="K55" s="88"/>
     </row>
-    <row r="56" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="83"/>
       <c r="B56" s="84"/>
       <c r="C56" s="85"/>
@@ -10682,7 +10682,7 @@
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
     </row>
-    <row r="57" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="83"/>
       <c r="B57" s="84"/>
       <c r="C57" s="85"/>
@@ -10698,7 +10698,7 @@
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
     </row>
-    <row r="58" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="83"/>
       <c r="B58" s="84"/>
       <c r="C58" s="85"/>
@@ -10714,7 +10714,7 @@
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
     </row>
-    <row r="59" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="83"/>
       <c r="B59" s="84"/>
       <c r="C59" s="85"/>
@@ -10725,12 +10725,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="86"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
       <c r="J59" s="88"/>
       <c r="K59" s="88"/>
     </row>
-    <row r="60" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
       <c r="B60" s="84"/>
       <c r="C60" s="85"/>
@@ -10741,19 +10741,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="86"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
       <c r="J60" s="88"/>
       <c r="K60" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10768,6 +10762,12 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
@@ -10809,139 +10809,139 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="37.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="1024" width="8.08203125" style="1" customWidth="1"/>
+    <col min="15" max="1024" width="8.125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:23" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-    </row>
-    <row r="2" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+    </row>
+    <row r="2" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-    </row>
-    <row r="3" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+    </row>
+    <row r="3" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-    </row>
-    <row r="4" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+    </row>
+    <row r="4" spans="1:23" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-    </row>
-    <row r="5" spans="1:23" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+    </row>
+    <row r="5" spans="1:23" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-    </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="D7" s="161" t="s">
+      <c r="B7" s="162"/>
+      <c r="D7" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="G7" s="161" t="s">
+      <c r="E7" s="162"/>
+      <c r="G7" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="M7" s="161" t="s">
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="M7" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="161"/>
-    </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="162"/>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
         <v>148</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
         <v>157</v>
       </c>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="N9" s="97"/>
     </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>161</v>
       </c>
@@ -11034,24 +11034,24 @@
       </c>
       <c r="N10" s="97"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="93"/>
       <c r="D11" s="92"/>
       <c r="E11" s="93"/>
-      <c r="G11" s="161" t="s">
+      <c r="G11" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
       <c r="M11" s="96" t="s">
         <v>165</v>
       </c>
       <c r="N11" s="97"/>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="92"/>
       <c r="B12" s="93"/>
       <c r="D12" s="92"/>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="N12" s="97"/>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="93"/>
       <c r="D13" s="92"/>
@@ -11101,7 +11101,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="92"/>
       <c r="B14" s="93"/>
       <c r="D14" s="92"/>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="N14" s="97"/>
     </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="D15" s="92"/>
@@ -11143,17 +11143,17 @@
       </c>
       <c r="N15" s="97"/>
     </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="92"/>
       <c r="B16" s="93"/>
       <c r="D16" s="92"/>
       <c r="E16" s="93"/>
-      <c r="G16" s="162" t="s">
+      <c r="G16" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
       <c r="K16" s="98">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N16" s="97"/>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="92"/>
       <c r="B17" s="93"/>
       <c r="D17" s="92"/>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="N17" s="97"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="92"/>
       <c r="B18" s="93"/>
       <c r="D18" s="92"/>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="N18" s="97"/>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
       <c r="B19" s="93"/>
       <c r="D19" s="92"/>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="N19" s="97"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
       <c r="B20" s="93"/>
       <c r="D20" s="92"/>
@@ -11203,19 +11203,19 @@
       </c>
       <c r="N20" s="97"/>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M21" s="96" t="s">
         <v>180</v>
       </c>
       <c r="N21" s="97"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M22" s="96" t="s">
         <v>181</v>
       </c>
       <c r="N22" s="97"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M23" s="99" t="s">
         <v>182</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="99" t="s">
         <v>183</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="99" t="s">
         <v>184</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="99" t="s">
         <v>185</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="103" t="s">
         <v>186</v>
       </c>
@@ -11297,65 +11297,65 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="24" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.08203125" style="1" customWidth="1"/>
-    <col min="15" max="1024" width="8.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="1" customWidth="1"/>
+    <col min="15" max="1024" width="8.125" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-    </row>
-    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="169" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+    </row>
+    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="E3" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="105" t="s">
         <v>188</v>
       </c>
@@ -11366,28 +11366,28 @@
       <c r="C4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168" t="s">
+      <c r="G4" s="169"/>
+      <c r="H4" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168" t="s">
+      <c r="I4" s="169"/>
+      <c r="J4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168" t="s">
+      <c r="K4" s="169"/>
+      <c r="L4" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="168"/>
+      <c r="M4" s="169"/>
       <c r="N4" s="107"/>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>50</v>
       </c>
@@ -11397,28 +11397,28 @@
       <c r="C5" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="168" t="s">
+      <c r="E5" s="171"/>
+      <c r="F5" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168" t="s">
+      <c r="G5" s="169"/>
+      <c r="H5" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168" t="s">
+      <c r="I5" s="169"/>
+      <c r="J5" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168" t="s">
+      <c r="K5" s="169"/>
+      <c r="L5" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="168"/>
+      <c r="M5" s="169"/>
       <c r="N5" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
         <v>192</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="C6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="170"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="110">
         <f>B6*G6</f>
         <v>12.103000000000002</v>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="N6" s="110"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>193</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>31.381350000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>195</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>20.834450000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>198</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>54.705560000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
         <v>200</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>16.339050000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>202</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>8.0398500000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="105" t="s">
         <v>204</v>
       </c>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="N12" s="117"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="114" t="s">
         <v>206</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>22.926540000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="112" t="s">
         <v>209</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>22.131200000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="117" t="s">
         <v>210</v>
       </c>
@@ -11860,12 +11860,12 @@
       </c>
       <c r="N15" s="117"/>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="169" t="s">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
       <c r="E16" s="40" t="s">
         <v>211</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>176.35800000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>64</v>
       </c>
@@ -11916,7 +11916,7 @@
       <c r="C17" s="37"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>65</v>
       </c>
@@ -11928,7 +11928,7 @@
       <c r="L18" s="68"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>66</v>
       </c>
@@ -11938,7 +11938,7 @@
       <c r="C19" s="37"/>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>67</v>
       </c>
@@ -11950,7 +11950,7 @@
       <c r="L20" s="68"/>
       <c r="N20" s="68"/>
     </row>
-    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>212</v>
       </c>
@@ -11961,7 +11961,7 @@
       <c r="C21" s="37"/>
       <c r="N21" s="68"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="C22" s="37"/>
       <c r="J22" s="68"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>70</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>213</v>
       </c>
@@ -11991,16 +11991,16 @@
       </c>
       <c r="C24" s="37"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J26" s="68"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J27" s="68"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N28" s="68"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N29" s="68"/>
     </row>
   </sheetData>
